--- a/Excel/res/services/Excel/ExcelToJsonFile/source/Data.xlsx
+++ b/Excel/res/services/Excel/ExcelToJsonFile/source/Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Excel/ExcelToJsonFile/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E361FB9A-1702-A44E-AEE3-0DFBF7AC42EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6ABB82-FE10-EC46-8F79-2E3AEB4CFB12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" activeTab="1" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
+    <workbookView xWindow="22940" yWindow="14620" windowWidth="22940" windowHeight="14180" xr2:uid="{F00724DD-AD15-2649-B14F-BA0DB1406F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="ExcelList&lt;list&gt;" sheetId="2" r:id="rId1"/>
-    <sheet name="ExcelDict&lt;dict&gt;" sheetId="3" r:id="rId2"/>
+    <sheet name="ExcelDict&lt;dict&gt;" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="valuevx">42.314159</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -69,34 +69,6 @@
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tRegisterTime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sHeadPath</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iCoins</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fQuality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bMale</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -297,15 +269,7 @@
     <t>http://where.com/png20.png</t>
   </si>
   <si>
-    <t>sStringKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>stringValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tTimeKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -313,23 +277,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lListKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dItemNoName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>uUniqueID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>iIntKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -345,27 +293,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>iItemNoName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bItemNoName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sItemNoName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>strValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dDictKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fFloatKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -377,19 +305,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>dDictBlankKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bBoolIntKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bBoolStringLongKey</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -397,11 +313,107 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bBoolStringShortKey</t>
+    <t>t</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
+    <t>&lt;l&gt;list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;d&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;d&gt;dict</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;l&gt;listInDict</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;f&gt;num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;d&gt;dictBlank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;boolNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;boolString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;boolShortString</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;t&gt;time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;t&gt;registerTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;headPath</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;i&gt;coins</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;f&gt;quality</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;male</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,8 +513,20 @@
       <family val="4"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yuppy SC Regular"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +560,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +727,23 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -968,7 +1069,9 @@
   </sheetPr>
   <dimension ref="A1:BS584"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1043,25 +1146,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1096,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" s="8">
         <v>10000000001</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" s="8">
         <v>213412</v>
@@ -1152,16 +1255,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8">
         <v>10000000002</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10">
         <v>213413</v>
@@ -1207,16 +1310,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8">
         <v>10000000003</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F5" s="8">
         <v>213414</v>
@@ -1296,16 +1399,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8">
         <v>10000000004</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10">
         <v>213415</v>
@@ -1384,16 +1487,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8">
         <v>10000000005</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8">
         <v>213416</v>
@@ -1473,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8">
         <v>10000000006</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F8" s="10">
         <v>213417</v>
@@ -1561,16 +1664,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8">
         <v>10000000007</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F9" s="8">
         <v>213418</v>
@@ -1650,16 +1753,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="8">
         <v>10000000008</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F10" s="10">
         <v>213419</v>
@@ -1738,16 +1841,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8">
         <v>10000000009</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F11" s="8">
         <v>213420</v>
@@ -1827,16 +1930,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8">
         <v>10000000010</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F12" s="10">
         <v>213421</v>
@@ -1915,16 +2018,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8">
         <v>10000000011</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8">
         <v>213422</v>
@@ -2004,16 +2107,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8">
         <v>10000000012</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" s="10">
         <v>213423</v>
@@ -2092,16 +2195,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8">
         <v>10000000013</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8">
         <v>213424</v>
@@ -2181,16 +2284,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8">
         <v>10000000014</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F16" s="10">
         <v>213425</v>
@@ -2269,16 +2372,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D17" s="8">
         <v>10000000015</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8">
         <v>213426</v>
@@ -2358,16 +2461,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8">
         <v>10000000016</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F18" s="10">
         <v>213427</v>
@@ -2446,16 +2549,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8">
         <v>10000000017</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F19" s="8">
         <v>213428</v>
@@ -2535,16 +2638,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8">
         <v>10000000018</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F20" s="10">
         <v>213429</v>
@@ -2623,16 +2726,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8">
         <v>10000000019</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F21" s="8">
         <v>213430</v>
@@ -2712,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8">
         <v>10000000020</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F22" s="10">
         <v>213431</v>
@@ -43568,25 +43671,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4192AAB-EE28-5941-A22A-3923C5A9C850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F850299-BF9C-D64C-8AC7-D81780BF5E3B}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="13.1640625" style="13"/>
+    <col min="1" max="1" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="13.1640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16">
-      <c r="A1" s="14" t="s">
-        <v>75</v>
+      <c r="A1" s="20" t="s">
+        <v>85</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>76</v>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -43600,11 +43710,11 @@
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="16">
-      <c r="A2" s="14" t="s">
-        <v>77</v>
+      <c r="A2" s="19" t="s">
+        <v>97</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>78</v>
+      <c r="B2" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -43618,12 +43728,12 @@
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="16">
-      <c r="A3" s="14" t="s">
-        <v>79</v>
+      <c r="A3" s="15" t="s">
+        <v>80</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -43634,12 +43744,12 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="16">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>80</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -43650,13 +43760,13 @@
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" ht="16">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>81</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19" t="s">
+        <v>86</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>82</v>
+      <c r="D5" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -43668,13 +43778,13 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="16">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>83</v>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>84</v>
+      <c r="D6" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -43686,12 +43796,12 @@
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" ht="16">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14" t="s">
-        <v>80</v>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17" t="s">
+        <v>81</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -43702,13 +43812,13 @@
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="16">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>81</v>
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>85</v>
+      <c r="D8" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -43720,13 +43830,13 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="16">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>83</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20" t="s">
+        <v>84</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>86</v>
+      <c r="D9" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -43738,12 +43848,12 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" ht="16">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>87</v>
+      <c r="A10" s="15"/>
+      <c r="B10" s="22" t="s">
+        <v>92</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>85</v>
+      <c r="C10" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -43756,11 +43866,11 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="16">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>88</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="24" t="s">
+        <v>93</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="14"/>
@@ -43774,12 +43884,12 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="16">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>89</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="26" t="s">
+        <v>94</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>90</v>
+      <c r="C12" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -43792,13 +43902,13 @@
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" ht="16">
-      <c r="A13" s="14" t="s">
-        <v>91</v>
+      <c r="A13" s="18" t="s">
+        <v>87</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -43808,13 +43918,13 @@
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="16">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>79</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="15" t="s">
+        <v>88</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -43824,13 +43934,13 @@
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="16">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>80</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>81</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -43840,14 +43950,14 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>81</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="19" t="s">
+        <v>86</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>82</v>
+      <c r="E16" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -43858,14 +43968,14 @@
       <c r="L16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="16">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14" t="s">
-        <v>92</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20" t="s">
+        <v>89</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>93</v>
+      <c r="E17" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -43876,13 +43986,13 @@
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="1:12" ht="16">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>80</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17" t="s">
+        <v>81</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -43892,14 +44002,14 @@
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="16">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>81</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19" t="s">
+        <v>86</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>85</v>
+      <c r="E19" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -43910,14 +44020,14 @@
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="16">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>92</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20" t="s">
+        <v>89</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>94</v>
+      <c r="E20" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -43928,13 +44038,13 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="16">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>87</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="22" t="s">
+        <v>92</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>85</v>
+      <c r="D21" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -43946,13 +44056,13 @@
       <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="16">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
-        <v>88</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="28" t="s">
+        <v>93</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>82</v>
+      <c r="D22" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -43964,13 +44074,13 @@
       <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="16">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>89</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="26" t="s">
+        <v>94</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>90</v>
+      <c r="D23" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -43982,10 +44092,10 @@
       <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="16">
-      <c r="A24" s="14" t="s">
-        <v>95</v>
+      <c r="A24" s="30" t="s">
+        <v>90</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -43998,11 +44108,11 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="16">
-      <c r="A25" s="14" t="s">
-        <v>96</v>
+      <c r="A25" s="31" t="s">
+        <v>91</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>97</v>
+      <c r="B25" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -44016,11 +44126,11 @@
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="16">
-      <c r="A26" s="14" t="s">
-        <v>98</v>
+      <c r="A26" s="30" t="s">
+        <v>95</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>99</v>
+      <c r="B26" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -44034,11 +44144,11 @@
       <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="16">
-      <c r="A27" s="14" t="s">
-        <v>100</v>
+      <c r="A27" s="31" t="s">
+        <v>96</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>101</v>
+      <c r="B27" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
